--- a/public/sample/sample_old_extra_acc.xlsx
+++ b/public/sample/sample_old_extra_acc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bluewolf/bluewolf/public/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220ACA85-8BDB-7747-9D52-B11780903C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38391F74-71B2-BC4E-B980-470B477158BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12240" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{FB7BF42F-579A-9746-B645-9CE95C1A21AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27220" xr2:uid="{FB7BF42F-579A-9746-B645-9CE95C1A21AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -785,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,18 +797,9 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -825,72 +815,33 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -906,6 +857,72 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,56 +941,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1292,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4CA5BF-374C-9A48-8E21-B0F3F407B9A9}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
@@ -1310,237 +1288,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="40" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
     </row>
     <row r="2" spans="1:46" ht="40" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:46" ht="40" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="44" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="43" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="57" t="s">
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="57" t="s">
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="59"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AS3" s="2"/>
       <c r="AT3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="40" customHeight="1">
-      <c r="A4" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="47" t="s">
+      <c r="W4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="X4" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="60" t="s">
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AH4" s="47" t="s">
+      <c r="AH4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AI4" s="47" t="s">
+      <c r="AI4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AJ4" s="47" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AK4" s="47" t="s">
+      <c r="AK4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="48"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="26"/>
     </row>
     <row r="5" spans="1:46" ht="40" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="46" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52">
         <f>D5/1.1</f>
         <v>0</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <f>SUM(I5:L5)</f>
         <v>0</v>
       </c>
@@ -1550,7 +1528,7 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="38">
         <f>G5-H5</f>
         <v>0</v>
       </c>
@@ -1560,10 +1538,10 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="31">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29">
         <f>SUM(N5:O5,Q5:R5)</f>
         <v>0</v>
       </c>
@@ -1576,23 +1554,23 @@
       <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="38">
         <f>P5/1.1</f>
         <v>0</v>
       </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
         <v>0</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
       </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="51">
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="29">
         <f>SUM(W5:AF5)</f>
         <v>0</v>
       </c>
@@ -1623,10 +1601,10 @@
       <c r="AE5" s="3">
         <v>0</v>
       </c>
-      <c r="AF5" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="51">
+      <c r="AF5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="29">
         <f>SUM(AH5:AQ5)</f>
         <v>0</v>
       </c>
@@ -1657,26 +1635,26 @@
       <c r="AP5" s="3">
         <v>0</v>
       </c>
-      <c r="AQ5" s="54">
+      <c r="AQ5" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="40" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="52">
         <f t="shared" ref="E6:E31" si="0">D6/1.1</f>
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="29">
         <f t="shared" ref="F6:F31" si="1">SUM(I6:L6)</f>
         <v>0</v>
       </c>
@@ -1686,7 +1664,7 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="38">
         <f t="shared" ref="I6:I31" si="2">G6-H6</f>
         <v>0</v>
       </c>
@@ -1696,10 +1674,10 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="31">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
         <f t="shared" ref="M6:M31" si="3">SUM(N6:O6,Q6:R6)</f>
         <v>0</v>
       </c>
@@ -1712,23 +1690,23 @@
       <c r="P6" s="3">
         <v>0</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="38">
         <f t="shared" ref="Q6:Q31" si="4">P6/1.1</f>
         <v>0</v>
       </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="51">
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="29">
         <v>0</v>
       </c>
       <c r="W6" s="3">
@@ -1758,10 +1736,10 @@
       <c r="AE6" s="3">
         <v>0</v>
       </c>
-      <c r="AF6" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="51">
+      <c r="AF6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="29">
         <v>0</v>
       </c>
       <c r="AH6" s="3">
@@ -1791,26 +1769,26 @@
       <c r="AP6" s="3">
         <v>0</v>
       </c>
-      <c r="AQ6" s="54">
+      <c r="AQ6" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="40" customHeight="1">
-      <c r="A7" s="40"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1820,7 +1798,7 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1830,10 +1808,10 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="31">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1846,23 +1824,23 @@
       <c r="P7" s="3">
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
         <v>0</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="51">
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="29">
         <v>0</v>
       </c>
       <c r="W7" s="3">
@@ -1892,10 +1870,10 @@
       <c r="AE7" s="3">
         <v>0</v>
       </c>
-      <c r="AF7" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="51">
+      <c r="AF7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="29">
         <v>0</v>
       </c>
       <c r="AH7" s="3">
@@ -1925,26 +1903,26 @@
       <c r="AP7" s="3">
         <v>0</v>
       </c>
-      <c r="AQ7" s="54">
+      <c r="AQ7" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="40" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1954,7 +1932,7 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1964,10 +1942,10 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1980,23 +1958,23 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
         <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="51">
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="29">
         <v>0</v>
       </c>
       <c r="W8" s="3">
@@ -2026,10 +2004,10 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-      <c r="AF8" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="51">
+      <c r="AF8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="29">
         <v>0</v>
       </c>
       <c r="AH8" s="3">
@@ -2059,294 +2037,294 @@
       <c r="AP8" s="3">
         <v>0</v>
       </c>
-      <c r="AQ8" s="54">
+      <c r="AQ8" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="40" customHeight="1" thickBot="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="27">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29">
-        <v>0</v>
-      </c>
-      <c r="M9" s="32">
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="27">
-        <v>0</v>
-      </c>
-      <c r="O9" s="27">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="29">
-        <v>0</v>
-      </c>
-      <c r="S9" s="25">
-        <v>0</v>
-      </c>
-      <c r="T9" s="27">
-        <v>0</v>
-      </c>
-      <c r="U9" s="29">
-        <v>0</v>
-      </c>
-      <c r="V9" s="61">
-        <v>0</v>
-      </c>
-      <c r="W9" s="27">
-        <v>0</v>
-      </c>
-      <c r="X9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="55">
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0</v>
+      </c>
+      <c r="V9" s="36">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="40" customHeight="1" thickTop="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23">
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="22">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18">
-        <v>0</v>
-      </c>
-      <c r="T10" s="20">
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
-        <v>0</v>
-      </c>
-      <c r="V10" s="52">
-        <v>0</v>
-      </c>
-      <c r="W10" s="20">
-        <v>0</v>
-      </c>
-      <c r="X10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="56">
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="30">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="40" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2356,7 +2334,7 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2366,10 +2344,10 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="31">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2382,23 +2360,23 @@
       <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R11" s="8">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
         <v>0</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11" s="51">
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="29">
         <v>0</v>
       </c>
       <c r="W11" s="3">
@@ -2428,10 +2406,10 @@
       <c r="AE11" s="3">
         <v>0</v>
       </c>
-      <c r="AF11" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="51">
+      <c r="AF11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="29">
         <v>0</v>
       </c>
       <c r="AH11" s="3">
@@ -2461,26 +2439,26 @@
       <c r="AP11" s="3">
         <v>0</v>
       </c>
-      <c r="AQ11" s="54">
+      <c r="AQ11" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="40" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2490,7 +2468,7 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2500,10 +2478,10 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2516,23 +2494,23 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
         <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="51">
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="29">
         <v>0</v>
       </c>
       <c r="W12" s="3">
@@ -2562,10 +2540,10 @@
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-      <c r="AF12" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="51">
+      <c r="AF12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="29">
         <v>0</v>
       </c>
       <c r="AH12" s="3">
@@ -2595,26 +2573,26 @@
       <c r="AP12" s="3">
         <v>0</v>
       </c>
-      <c r="AQ12" s="54">
+      <c r="AQ12" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="40" customHeight="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2624,7 +2602,7 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2634,10 +2612,10 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="31">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2650,23 +2628,23 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
         <v>0</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13" s="51">
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29">
         <v>0</v>
       </c>
       <c r="W13" s="3">
@@ -2696,10 +2674,10 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-      <c r="AF13" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="51">
+      <c r="AF13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="29">
         <v>0</v>
       </c>
       <c r="AH13" s="3">
@@ -2729,294 +2707,294 @@
       <c r="AP13" s="3">
         <v>0</v>
       </c>
-      <c r="AQ13" s="54">
+      <c r="AQ13" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="40" customHeight="1" thickBot="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="27">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="27">
-        <v>0</v>
-      </c>
-      <c r="O14" s="27">
-        <v>0</v>
-      </c>
-      <c r="P14" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="30">
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="29">
-        <v>0</v>
-      </c>
-      <c r="S14" s="25">
-        <v>0</v>
-      </c>
-      <c r="T14" s="27">
-        <v>0</v>
-      </c>
-      <c r="U14" s="29">
-        <v>0</v>
-      </c>
-      <c r="V14" s="61">
-        <v>0</v>
-      </c>
-      <c r="W14" s="27">
-        <v>0</v>
-      </c>
-      <c r="X14" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="55">
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="36">
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="40" customHeight="1" thickTop="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33">
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <v>0</v>
-      </c>
-      <c r="P15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="23">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="22">
-        <v>0</v>
-      </c>
-      <c r="S15" s="18">
-        <v>0</v>
-      </c>
-      <c r="T15" s="20">
-        <v>0</v>
-      </c>
-      <c r="U15" s="22">
-        <v>0</v>
-      </c>
-      <c r="V15" s="52">
-        <v>0</v>
-      </c>
-      <c r="W15" s="20">
-        <v>0</v>
-      </c>
-      <c r="X15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="56">
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="40" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3026,7 +3004,7 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3036,10 +3014,10 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="31">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3052,23 +3030,23 @@
       <c r="P16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="8">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
         <v>0</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
       </c>
-      <c r="U16" s="8">
-        <v>0</v>
-      </c>
-      <c r="V16" s="51">
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="29">
         <v>0</v>
       </c>
       <c r="W16" s="3">
@@ -3098,10 +3076,10 @@
       <c r="AE16" s="3">
         <v>0</v>
       </c>
-      <c r="AF16" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="51">
+      <c r="AF16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="29">
         <v>0</v>
       </c>
       <c r="AH16" s="3">
@@ -3131,26 +3109,26 @@
       <c r="AP16" s="3">
         <v>0</v>
       </c>
-      <c r="AQ16" s="54">
+      <c r="AQ16" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="40" customHeight="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3160,7 +3138,7 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3170,10 +3148,10 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="31">
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3186,23 +3164,23 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
         <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="U17" s="8">
-        <v>0</v>
-      </c>
-      <c r="V17" s="51">
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="29">
         <v>0</v>
       </c>
       <c r="W17" s="3">
@@ -3232,10 +3210,10 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-      <c r="AF17" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="51">
+      <c r="AF17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="29">
         <v>0</v>
       </c>
       <c r="AH17" s="3">
@@ -3265,26 +3243,26 @@
       <c r="AP17" s="3">
         <v>0</v>
       </c>
-      <c r="AQ17" s="54">
+      <c r="AQ17" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="40" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3294,7 +3272,7 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3304,10 +3282,10 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="31">
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3320,23 +3298,23 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
         <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="8">
-        <v>0</v>
-      </c>
-      <c r="V18" s="51">
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="29">
         <v>0</v>
       </c>
       <c r="W18" s="3">
@@ -3366,10 +3344,10 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-      <c r="AF18" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="51">
+      <c r="AF18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="29">
         <v>0</v>
       </c>
       <c r="AH18" s="3">
@@ -3399,78 +3377,78 @@
       <c r="AP18" s="3">
         <v>0</v>
       </c>
-      <c r="AQ18" s="54">
+      <c r="AQ18" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="40" customHeight="1" thickBot="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="27">
-        <v>0</v>
-      </c>
-      <c r="K19" s="27">
-        <v>0</v>
-      </c>
-      <c r="L19" s="29">
-        <v>0</v>
-      </c>
-      <c r="M19" s="32">
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="27">
-        <v>0</v>
-      </c>
-      <c r="O19" s="27">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30">
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="29">
-        <v>0</v>
-      </c>
-      <c r="S19" s="25">
-        <v>0</v>
-      </c>
-      <c r="T19" s="27">
-        <v>0</v>
-      </c>
-      <c r="U19" s="29">
-        <v>0</v>
-      </c>
-      <c r="V19" s="51">
+      <c r="R19" s="18">
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+      <c r="V19" s="29">
         <v>0</v>
       </c>
       <c r="W19" s="3">
@@ -3500,10 +3478,10 @@
       <c r="AE19" s="3">
         <v>0</v>
       </c>
-      <c r="AF19" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="51">
+      <c r="AF19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="29">
         <v>0</v>
       </c>
       <c r="AH19" s="3">
@@ -3533,78 +3511,78 @@
       <c r="AP19" s="3">
         <v>0</v>
       </c>
-      <c r="AQ19" s="55">
+      <c r="AQ19" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="40" customHeight="1" thickTop="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="33">
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="23">
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="22">
-        <v>0</v>
-      </c>
-      <c r="S20" s="18">
-        <v>0</v>
-      </c>
-      <c r="T20" s="20">
-        <v>0</v>
-      </c>
-      <c r="U20" s="22">
-        <v>0</v>
-      </c>
-      <c r="V20" s="51">
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="29">
         <v>0</v>
       </c>
       <c r="W20" s="3">
@@ -3634,10 +3612,10 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-      <c r="AF20" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="51">
+      <c r="AF20" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="29">
         <v>0</v>
       </c>
       <c r="AH20" s="3">
@@ -3667,26 +3645,26 @@
       <c r="AP20" s="3">
         <v>0</v>
       </c>
-      <c r="AQ20" s="56">
+      <c r="AQ20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="40" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3696,7 +3674,7 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3706,10 +3684,10 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="31">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3722,23 +3700,23 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="8">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
         <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="8">
-        <v>0</v>
-      </c>
-      <c r="V21" s="51">
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="29">
         <v>0</v>
       </c>
       <c r="W21" s="3">
@@ -3768,10 +3746,10 @@
       <c r="AE21" s="3">
         <v>0</v>
       </c>
-      <c r="AF21" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="51">
+      <c r="AF21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="29">
         <v>0</v>
       </c>
       <c r="AH21" s="3">
@@ -3801,26 +3779,26 @@
       <c r="AP21" s="3">
         <v>0</v>
       </c>
-      <c r="AQ21" s="54">
+      <c r="AQ21" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="40" customHeight="1">
-      <c r="A22" s="40"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3830,7 +3808,7 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3840,10 +3818,10 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="31">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3856,23 +3834,23 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="8">
-        <v>0</v>
-      </c>
-      <c r="V22" s="51">
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="29">
         <v>0</v>
       </c>
       <c r="W22" s="3">
@@ -3902,10 +3880,10 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-      <c r="AF22" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="51">
+      <c r="AF22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="29">
         <v>0</v>
       </c>
       <c r="AH22" s="3">
@@ -3935,26 +3913,26 @@
       <c r="AP22" s="3">
         <v>0</v>
       </c>
-      <c r="AQ22" s="54">
+      <c r="AQ22" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="40" customHeight="1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3964,7 +3942,7 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3974,10 +3952,10 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="31">
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3990,23 +3968,23 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="8">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
         <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U23" s="8">
-        <v>0</v>
-      </c>
-      <c r="V23" s="51">
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="29">
         <v>0</v>
       </c>
       <c r="W23" s="3">
@@ -4036,10 +4014,10 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-      <c r="AF23" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="51">
+      <c r="AF23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="29">
         <v>0</v>
       </c>
       <c r="AH23" s="3">
@@ -4069,294 +4047,294 @@
       <c r="AP23" s="3">
         <v>0</v>
       </c>
-      <c r="AQ23" s="54">
+      <c r="AQ23" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="40" customHeight="1" thickBot="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="27">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
-      <c r="L24" s="29">
-        <v>0</v>
-      </c>
-      <c r="M24" s="32">
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N24" s="27">
-        <v>0</v>
-      </c>
-      <c r="O24" s="27">
-        <v>0</v>
-      </c>
-      <c r="P24" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="30">
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="29">
-        <v>0</v>
-      </c>
-      <c r="S24" s="25">
-        <v>0</v>
-      </c>
-      <c r="T24" s="27">
-        <v>0</v>
-      </c>
-      <c r="U24" s="29">
-        <v>0</v>
-      </c>
-      <c r="V24" s="61">
-        <v>0</v>
-      </c>
-      <c r="W24" s="27">
-        <v>0</v>
-      </c>
-      <c r="X24" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="55">
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+      <c r="U24" s="18">
+        <v>0</v>
+      </c>
+      <c r="V24" s="36">
+        <v>0</v>
+      </c>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="40" customHeight="1" thickTop="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="20">
-        <v>0</v>
-      </c>
-      <c r="K25" s="20">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="33">
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N25" s="20">
-        <v>0</v>
-      </c>
-      <c r="O25" s="20">
-        <v>0</v>
-      </c>
-      <c r="P25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="23">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="22">
-        <v>0</v>
-      </c>
-      <c r="S25" s="18">
-        <v>0</v>
-      </c>
-      <c r="T25" s="20">
-        <v>0</v>
-      </c>
-      <c r="U25" s="22">
-        <v>0</v>
-      </c>
-      <c r="V25" s="52">
-        <v>0</v>
-      </c>
-      <c r="W25" s="20">
-        <v>0</v>
-      </c>
-      <c r="X25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="56">
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="30">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+      <c r="X25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="40" customHeight="1">
-      <c r="A26" s="40"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4366,7 +4344,7 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4376,10 +4354,10 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="31">
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4392,23 +4370,23 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
         <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="8">
-        <v>0</v>
-      </c>
-      <c r="V26" s="51">
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="29">
         <v>0</v>
       </c>
       <c r="W26" s="3">
@@ -4438,10 +4416,10 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-      <c r="AF26" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="51">
+      <c r="AF26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="29">
         <v>0</v>
       </c>
       <c r="AH26" s="3">
@@ -4471,26 +4449,26 @@
       <c r="AP26" s="3">
         <v>0</v>
       </c>
-      <c r="AQ26" s="54">
+      <c r="AQ26" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:43" ht="40" customHeight="1">
-      <c r="A27" s="40"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4500,7 +4478,7 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4510,10 +4488,10 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="31">
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4526,23 +4504,23 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
         <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-      <c r="U27" s="8">
-        <v>0</v>
-      </c>
-      <c r="V27" s="51">
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="29">
         <v>0</v>
       </c>
       <c r="W27" s="3">
@@ -4572,10 +4550,10 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-      <c r="AF27" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="51">
+      <c r="AF27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="29">
         <v>0</v>
       </c>
       <c r="AH27" s="3">
@@ -4605,26 +4583,26 @@
       <c r="AP27" s="3">
         <v>0</v>
       </c>
-      <c r="AQ27" s="54">
+      <c r="AQ27" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="40" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4634,7 +4612,7 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4644,10 +4622,10 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="31">
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4660,23 +4638,23 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
         <v>0</v>
       </c>
       <c r="T28" s="3">
         <v>0</v>
       </c>
-      <c r="U28" s="8">
-        <v>0</v>
-      </c>
-      <c r="V28" s="51">
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="29">
         <v>0</v>
       </c>
       <c r="W28" s="3">
@@ -4706,10 +4684,10 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-      <c r="AF28" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="51">
+      <c r="AF28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="29">
         <v>0</v>
       </c>
       <c r="AH28" s="3">
@@ -4739,416 +4717,416 @@
       <c r="AP28" s="3">
         <v>0</v>
       </c>
-      <c r="AQ28" s="54">
+      <c r="AQ28" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="40" customHeight="1" thickBot="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="25">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27">
-        <v>0</v>
-      </c>
-      <c r="I29" s="28">
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="27">
-        <v>0</v>
-      </c>
-      <c r="K29" s="27">
-        <v>0</v>
-      </c>
-      <c r="L29" s="29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="32">
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N29" s="27">
-        <v>0</v>
-      </c>
-      <c r="O29" s="27">
-        <v>0</v>
-      </c>
-      <c r="P29" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="30">
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="29">
-        <v>0</v>
-      </c>
-      <c r="S29" s="25">
-        <v>0</v>
-      </c>
-      <c r="T29" s="27">
-        <v>0</v>
-      </c>
-      <c r="U29" s="29">
-        <v>0</v>
-      </c>
-      <c r="V29" s="61">
-        <v>0</v>
-      </c>
-      <c r="W29" s="27">
-        <v>0</v>
-      </c>
-      <c r="X29" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="27">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="55">
+      <c r="R29" s="18">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="36">
+        <v>0</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="40" customHeight="1" thickTop="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="18">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="20">
-        <v>0</v>
-      </c>
-      <c r="H30" s="20">
-        <v>0</v>
-      </c>
-      <c r="I30" s="21">
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="20">
-        <v>0</v>
-      </c>
-      <c r="K30" s="20">
-        <v>0</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="33">
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="20">
-        <v>0</v>
-      </c>
-      <c r="O30" s="20">
-        <v>0</v>
-      </c>
-      <c r="P30" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="23">
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="22">
-        <v>0</v>
-      </c>
-      <c r="S30" s="18">
-        <v>0</v>
-      </c>
-      <c r="T30" s="20">
-        <v>0</v>
-      </c>
-      <c r="U30" s="22">
-        <v>0</v>
-      </c>
-      <c r="V30" s="52">
-        <v>0</v>
-      </c>
-      <c r="W30" s="20">
-        <v>0</v>
-      </c>
-      <c r="X30" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="56">
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="30">
+        <v>0</v>
+      </c>
+      <c r="W30" s="13">
+        <v>0</v>
+      </c>
+      <c r="X30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="34">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="40" customHeight="1" thickBot="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="12">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="14">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="14">
-        <v>0</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="34">
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N31" s="14">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0</v>
-      </c>
-      <c r="P31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
-      <c r="S31" s="12">
-        <v>0</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0</v>
-      </c>
-      <c r="U31" s="10">
-        <v>0</v>
-      </c>
-      <c r="V31" s="53">
-        <v>0</v>
-      </c>
-      <c r="W31" s="14">
-        <v>0</v>
-      </c>
-      <c r="X31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="53">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="10">
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+      <c r="V31" s="31">
+        <v>0</v>
+      </c>
+      <c r="W31" s="10">
+        <v>0</v>
+      </c>
+      <c r="X31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:43">
-      <c r="B32" s="11"/>
+      <c r="B32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
